--- a/Documentação/Planilhas/20151124_Confere/Conferencia_TRP.xlsx
+++ b/Documentação/Planilhas/20151124_Confere/Conferencia_TRP.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="272">
   <si>
     <t>Conferência dos dados da tabela:</t>
   </si>
@@ -157,15 +157,6 @@
     <t>Pegar a informação da coluna "Valor do Frete Cliente" para a Ref Fiscal desejada</t>
   </si>
   <si>
-    <t>4218646301</t>
-  </si>
-  <si>
-    <t>4547005</t>
-  </si>
-  <si>
-    <t>1.4000</t>
-  </si>
-  <si>
     <t>4547006</t>
   </si>
   <si>
@@ -371,12 +362,6 @@
   </si>
   <si>
     <t>1.9900</t>
-  </si>
-  <si>
-    <t>0.0028</t>
-  </si>
-  <si>
-    <t>0.8400</t>
   </si>
   <si>
     <t>7850</t>
@@ -434,9 +419,6 @@
     <t>Multiplicar o resultado da coluna VL_VOLUME_M3 por 300</t>
   </si>
   <si>
-    <t>0.6400</t>
-  </si>
-  <si>
     <t>Ir para a sessão "znfmdc560m000" (Contrato de Transportes) e informar o código da transportadora e contrato identificado anteriormente. Pegar a informação "ID Externa do Contrato" no cabeçalho da tela</t>
   </si>
   <si>
@@ -713,27 +695,6 @@
     <t>2014-09-15 17:27:01.000</t>
   </si>
   <si>
-    <t>1595</t>
-  </si>
-  <si>
-    <t>2.8000</t>
-  </si>
-  <si>
-    <t>Vivo_UrL</t>
-  </si>
-  <si>
-    <t>2014-07-09 01:00:00.000</t>
-  </si>
-  <si>
-    <t>0.0081</t>
-  </si>
-  <si>
-    <t>2.4300</t>
-  </si>
-  <si>
-    <t>2015-02-06 14:01:13.000</t>
-  </si>
-  <si>
     <t>5023370201</t>
   </si>
   <si>
@@ -752,39 +713,9 @@
     <t>2015-01-02 10:15:29.000</t>
   </si>
   <si>
-    <t>5023377402</t>
-  </si>
-  <si>
-    <t>1972</t>
-  </si>
-  <si>
-    <t>4.9900</t>
-  </si>
-  <si>
-    <t>Vivo_Rv_Lev</t>
-  </si>
-  <si>
-    <t>2015-01-07 09:49:57.000</t>
-  </si>
-  <si>
-    <t>12948023</t>
-  </si>
-  <si>
-    <t>Atibaia</t>
-  </si>
-  <si>
-    <t>2015-01-07 10:03:28.000</t>
-  </si>
-  <si>
     <t>Fixo 1</t>
   </si>
   <si>
-    <t>MG100000036BR</t>
-  </si>
-  <si>
-    <t>F20007092</t>
-  </si>
-  <si>
     <t>NL100000140BR</t>
   </si>
   <si>
@@ -794,45 +725,6 @@
     <t>DS_REGIAO</t>
   </si>
   <si>
-    <t>2014-04-17 16:24:17.000</t>
-  </si>
-  <si>
-    <t>2014-04-15 15:17:59.000</t>
-  </si>
-  <si>
-    <t>3.4600</t>
-  </si>
-  <si>
-    <t>6180180</t>
-  </si>
-  <si>
-    <t>Osasco</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>0.1020</t>
-  </si>
-  <si>
-    <t>3.4400</t>
-  </si>
-  <si>
-    <t>30.5856</t>
-  </si>
-  <si>
-    <t>34028316000294</t>
-  </si>
-  <si>
-    <t>CORREIOS</t>
-  </si>
-  <si>
-    <t>1969-12-31 21:00:00.000</t>
-  </si>
-  <si>
-    <t>E00039390</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -854,9 +746,6 @@
     <t>2014-12-17 11:46:00.000</t>
   </si>
   <si>
-    <t>1127038179</t>
-  </si>
-  <si>
     <t>11999868402</t>
   </si>
   <si>
@@ -872,7 +761,82 @@
     <t>Ir para a sessão "tccom4530m000" (Endereços) e informar o código do endereço na coluna "Código do Endereço". Pegar a informação da coluna "CEP/Código Postal"</t>
   </si>
   <si>
-    <t>Ir para a sessão 'znfmdc561m000" (Contrato de Transporte - Rede Logística) e informar o código da transportadora e contrato identificado anteriormente. Verificar qual região está com o Status "Ativo". Havendo mais de uma, verificar em qual delas o CEP identificado anteriormente se encaixa</t>
+    <t>NR_CARGA</t>
+  </si>
+  <si>
+    <t>DT_AJUSTADA</t>
+  </si>
+  <si>
+    <t>DT_PREVISTA</t>
+  </si>
+  <si>
+    <t>NR_TELEFONE</t>
+  </si>
+  <si>
+    <t>NR_TELEFONE1</t>
+  </si>
+  <si>
+    <t>NR_TELEFONE2</t>
+  </si>
+  <si>
+    <t>NR_PERIODO</t>
+  </si>
+  <si>
+    <t>Ir para a sessão 'znfmdc561m000" (Contrato de Transporte - Rede Logística). Na lupinha,  informar o código da transportadora e contrato identificado anteriormente, limpando primeiramente todos os campos. Verificar qual região está com o Status "Ativo". Pegar a informação da segunda lacuna da coluna  "Zona/Região". Havendo mais de uma, detalhar cada uma e verificar na aba inferior "Faixas de CEP", em qual delas o CEP identificado anteriormente se encaixa</t>
+  </si>
+  <si>
+    <t>DS_CAPITAL_INTERIOR</t>
+  </si>
+  <si>
+    <t>Ir para a sessão 'znfmdc561m000" (Contrato de Transporte - Rede Logística). Na lupinha,  informar o código da transportadora e contrato identificado anteriormente, limpando primeiramente todos os campos. Verificar qual região está com o Status "Ativo". Pegar a informação da primeira lacuna da coluna  "Zona/Região". Havendo mais de uma, detalhar cada uma e verificar na aba inferior "Faixas de CEP", em qual delas o CEP identificado anteriormente se encaixa</t>
+  </si>
+  <si>
+    <t>Pegar a informação da coluna "Número da Etiqueta".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Número da Carga". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Número da Ordem Fiscal".  Ir para a sessão "tdsls4100m000"  e informar o número na coluna "Ordem". Fazer o detalhamento da ordem apresentada. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Na aba inferior "Linhas de Ordem", detalhar uma linha apresentada. Na aba superior "Expedição", seção Expedição, pegar a informação da coluna "Data plan. de Entrega" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer o detalhamento do Pedido desejado. Na aba inferior "Liberar Entregas (Lista de Compra)", pegar a informação de "Data Prevista de Entrega" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer o detalhamento do Pedido desejado. Na aba superior "Entrega", seção "Contato". pegar a informação de "Telefone Entrega" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer o detalhamento do Pedido desejado. Na aba superior "Entrega", seção "Contato". pegar a informação de "Telefone 1 Entrega" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer o detalhamento do Pedido desejado. Na aba superior "Entrega", seção "Contato". pegar a informação de "Telefone 2 Entrega" </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fazer o detalhamento do Pedido desejado. Na aba superior "Expedição", seção "Expedição". pegar a informação de "Período Entrega Agendada" </t>
+  </si>
+  <si>
+    <t>QT_VOLUME</t>
+  </si>
+  <si>
+    <t>NR_CONTRATO</t>
+  </si>
+  <si>
+    <t>Pegar a informação do "Número do Contrato".</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pegar a informação da coluna "Quantidade de Volumes". </t>
+  </si>
+  <si>
+    <t>ID_TRANSP</t>
+  </si>
+  <si>
+    <t>T08</t>
   </si>
 </sst>
 </file>
@@ -981,7 +945,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1134,11 +1098,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1168,12 +1145,16 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1288,13 +1269,37 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1633,8 +1638,8 @@
   </sheetPr>
   <dimension ref="A1:AX41"/>
   <sheetViews>
-    <sheetView topLeftCell="I4" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20:R22"/>
+    <sheetView topLeftCell="X4" workbookViewId="0">
+      <selection activeCell="AA6" sqref="AA6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -1694,10 +1699,10 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:50" ht="21">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="5" t="s">
         <v>10</v>
       </c>
@@ -1713,12 +1718,12 @@
       <c r="AR2" s="1"/>
     </row>
     <row r="3" spans="1:50" ht="21">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="G3" s="5"/>
       <c r="S3" s="1"/>
@@ -1734,27 +1739,27 @@
     </row>
     <row r="4" spans="1:50">
       <c r="N4" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="S4" s="1"/>
       <c r="T4" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="V4" s="4"/>
       <c r="W4" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Y4" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="Z4" s="2"/>
       <c r="AL4" s="1"/>
@@ -1789,10 +1794,10 @@
         <v>11</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>18</v>
@@ -1870,31 +1875,31 @@
     </row>
     <row r="7" spans="1:50">
       <c r="A7" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>6</v>
@@ -1909,10 +1914,10 @@
         <v>38</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="P7" s="6" t="s">
         <v>35</v>
@@ -1921,38 +1926,38 @@
         <v>36</v>
       </c>
       <c r="R7" s="9" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="S7" s="6" t="s">
         <v>33</v>
       </c>
       <c r="T7" s="9" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="U7" s="6" t="s">
         <v>37</v>
       </c>
       <c r="V7" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W7" s="9" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="X7" s="9" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="Y7" s="9" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z7" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AB7" s="4"/>
       <c r="AC7" s="4"/>
-      <c r="AD7" s="12"/>
+      <c r="AD7" s="11"/>
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
       <c r="AG7" s="4"/>
@@ -1973,16 +1978,16 @@
     </row>
     <row r="8" spans="1:50">
       <c r="A8" s="4" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -1990,10 +1995,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J8" s="4" t="s">
         <v>6</v>
@@ -2011,7 +2016,7 @@
         <v>5</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P8" s="4" t="s">
         <v>35</v>
@@ -2020,38 +2025,38 @@
         <v>36</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="U8" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AB8" s="4"/>
       <c r="AC8" s="4"/>
-      <c r="AD8" s="12"/>
+      <c r="AD8" s="11"/>
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
       <c r="AG8" s="4"/>
@@ -2072,16 +2077,16 @@
     </row>
     <row r="9" spans="1:50">
       <c r="A9" s="4" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -2089,10 +2094,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J9" s="4" t="s">
         <v>6</v>
@@ -2113,44 +2118,44 @@
         <v>5</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="S9" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="U9" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA9" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AB9" s="4"/>
       <c r="AC9" s="4"/>
-      <c r="AD9" s="12"/>
+      <c r="AD9" s="11"/>
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
       <c r="AG9" s="4"/>
@@ -2171,16 +2176,16 @@
     </row>
     <row r="10" spans="1:50">
       <c r="A10" s="4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2188,10 +2193,10 @@
         <v>4</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J10" s="4" t="s">
         <v>6</v>
@@ -2224,32 +2229,32 @@
         <v>33</v>
       </c>
       <c r="T10" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="U10" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V10" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="X10" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="X10" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="Y10" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Z10" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA10" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AB10" s="4"/>
       <c r="AC10" s="4"/>
-      <c r="AD10" s="12"/>
+      <c r="AD10" s="11"/>
       <c r="AE10" s="4"/>
       <c r="AF10" s="4"/>
       <c r="AG10" s="4"/>
@@ -2270,16 +2275,16 @@
     </row>
     <row r="11" spans="1:50">
       <c r="A11" s="4" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -2287,10 +2292,10 @@
         <v>4</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>6</v>
@@ -2308,7 +2313,7 @@
         <v>5</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="P11" s="4" t="s">
         <v>35</v>
@@ -2317,38 +2322,38 @@
         <v>36</v>
       </c>
       <c r="R11" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="S11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="U11" s="4" t="s">
         <v>37</v>
       </c>
       <c r="V11" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="W11" s="4" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="X11" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="Y11" s="4" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="Z11" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="AA11" s="4" t="s">
         <v>8</v>
       </c>
       <c r="AB11" s="4"/>
       <c r="AC11" s="4"/>
-      <c r="AD11" s="12"/>
+      <c r="AD11" s="11"/>
       <c r="AE11" s="4"/>
       <c r="AF11" s="4"/>
       <c r="AG11" s="4"/>
@@ -2369,16 +2374,16 @@
     </row>
     <row r="12" spans="1:50">
       <c r="A12" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -2386,7 +2391,7 @@
         <v>4</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="I12" s="4" t="s">
         <v>6</v>
@@ -2416,28 +2421,28 @@
         <v>41</v>
       </c>
       <c r="R12" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="S12" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="W12" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="X12" s="4" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="Y12" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Z12" s="4" t="s">
         <v>6</v>
@@ -2447,7 +2452,7 @@
       </c>
       <c r="AB12" s="4"/>
       <c r="AC12" s="4"/>
-      <c r="AD12" s="12"/>
+      <c r="AD12" s="11"/>
       <c r="AE12" s="4"/>
       <c r="AF12" s="4"/>
       <c r="AG12" s="4"/>
@@ -2468,16 +2473,16 @@
     </row>
     <row r="13" spans="1:50">
       <c r="A13" s="4" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -2485,7 +2490,7 @@
         <v>4</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>6</v>
@@ -2506,7 +2511,7 @@
         <v>5</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>35</v>
@@ -2515,28 +2520,28 @@
         <v>36</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="S13" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="W13" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="X13" s="4" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="Y13" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="Z13" s="4" t="s">
         <v>6</v>
@@ -2546,7 +2551,7 @@
       </c>
       <c r="AB13" s="4"/>
       <c r="AC13" s="4"/>
-      <c r="AD13" s="12"/>
+      <c r="AD13" s="11"/>
       <c r="AE13" s="4"/>
       <c r="AF13" s="4"/>
       <c r="AG13" s="4"/>
@@ -2567,16 +2572,16 @@
     </row>
     <row r="14" spans="1:50">
       <c r="A14" s="4" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -2584,7 +2589,7 @@
         <v>4</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>6</v>
@@ -2605,7 +2610,7 @@
         <v>5</v>
       </c>
       <c r="O14" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="P14" s="4" t="s">
         <v>35</v>
@@ -2614,28 +2619,28 @@
         <v>36</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="W14" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="X14" s="4" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="Y14" s="4" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="Z14" s="4" t="s">
         <v>6</v>
@@ -2645,7 +2650,7 @@
       </c>
       <c r="AB14" s="4"/>
       <c r="AC14" s="4"/>
-      <c r="AD14" s="12"/>
+      <c r="AD14" s="11"/>
       <c r="AE14" s="4"/>
       <c r="AF14" s="4"/>
       <c r="AG14" s="4"/>
@@ -2666,16 +2671,16 @@
     </row>
     <row r="15" spans="1:50">
       <c r="A15" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -2683,7 +2688,7 @@
         <v>4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I15" s="4" t="s">
         <v>6</v>
@@ -2704,7 +2709,7 @@
         <v>5</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="P15" s="4" t="s">
         <v>35</v>
@@ -2713,28 +2718,28 @@
         <v>36</v>
       </c>
       <c r="R15" s="4" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="S15" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="W15" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="X15" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="Y15" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="Z15" s="4" t="s">
         <v>6</v>
@@ -2744,7 +2749,7 @@
       </c>
       <c r="AB15" s="4"/>
       <c r="AC15" s="4"/>
-      <c r="AD15" s="12"/>
+      <c r="AD15" s="11"/>
       <c r="AE15" s="4"/>
       <c r="AF15" s="4"/>
       <c r="AG15" s="4"/>
@@ -2765,16 +2770,16 @@
     </row>
     <row r="16" spans="1:50">
       <c r="A16" s="4" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
@@ -2782,7 +2787,7 @@
         <v>4</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="I16" s="4" t="s">
         <v>6</v>
@@ -2803,7 +2808,7 @@
         <v>5</v>
       </c>
       <c r="O16" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>35</v>
@@ -2812,28 +2817,28 @@
         <v>36</v>
       </c>
       <c r="R16" s="4" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="S16" s="4" t="s">
         <v>33</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="W16" s="4" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="X16" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="Y16" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="Z16" s="4" t="s">
         <v>6</v>
@@ -2843,7 +2848,7 @@
       </c>
       <c r="AB16" s="4"/>
       <c r="AC16" s="4"/>
-      <c r="AD16" s="12"/>
+      <c r="AD16" s="11"/>
       <c r="AE16" s="4"/>
       <c r="AF16" s="4"/>
       <c r="AG16" s="4"/>
@@ -2891,7 +2896,7 @@
       <c r="AA17" s="4"/>
       <c r="AB17" s="4"/>
       <c r="AC17" s="4"/>
-      <c r="AD17" s="12"/>
+      <c r="AD17" s="11"/>
       <c r="AE17" s="4"/>
       <c r="AF17" s="4"/>
       <c r="AG17" s="4"/>
@@ -2939,7 +2944,7 @@
       <c r="AA18" s="4"/>
       <c r="AB18" s="4"/>
       <c r="AC18" s="4"/>
-      <c r="AD18" s="12"/>
+      <c r="AD18" s="11"/>
       <c r="AE18" s="4"/>
       <c r="AF18" s="4"/>
       <c r="AG18" s="4"/>
@@ -2965,187 +2970,187 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="25"/>
+      <c r="S20" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="T20" s="24"/>
+      <c r="U20" s="24"/>
+      <c r="V20" s="24"/>
+      <c r="W20" s="25"/>
+      <c r="X20" s="32" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y20" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA20" s="19"/>
+    </row>
+    <row r="21" spans="1:50" ht="11.25" customHeight="1">
+      <c r="A21" s="26"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="26"/>
+      <c r="O21" s="27"/>
+      <c r="P21" s="27"/>
+      <c r="Q21" s="27"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="26"/>
+      <c r="T21" s="27"/>
+      <c r="U21" s="27"/>
+      <c r="V21" s="27"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="33"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+    </row>
+    <row r="22" spans="1:50" ht="11.25" customHeight="1">
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="31"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="30"/>
+      <c r="V22" s="30"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="34"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+    </row>
+    <row r="23" spans="1:50" ht="11.25" customHeight="1">
+      <c r="A23" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B20" s="22"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="21" t="s">
+      <c r="E23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="M23" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="N23" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q23" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="S23" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="T20" s="22"/>
-      <c r="U20" s="22"/>
-      <c r="V20" s="22"/>
-      <c r="W20" s="23"/>
-      <c r="X20" s="30" t="s">
-        <v>213</v>
-      </c>
-      <c r="Y20" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="Z20" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA20" s="17"/>
-    </row>
-    <row r="21" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A21" s="24"/>
-      <c r="B21" s="25"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="25"/>
-      <c r="L21" s="25"/>
-      <c r="M21" s="26"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="25"/>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="25"/>
-      <c r="R21" s="26"/>
-      <c r="S21" s="24"/>
-      <c r="T21" s="25"/>
-      <c r="U21" s="25"/>
-      <c r="V21" s="25"/>
-      <c r="W21" s="26"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="17"/>
-      <c r="Z21" s="17"/>
-      <c r="AA21" s="17"/>
-    </row>
-    <row r="22" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A22" s="27"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="28"/>
-      <c r="M22" s="29"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="28"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="29"/>
-      <c r="S22" s="27"/>
-      <c r="T22" s="28"/>
-      <c r="U22" s="28"/>
-      <c r="V22" s="28"/>
-      <c r="W22" s="29"/>
-      <c r="X22" s="32"/>
-      <c r="Y22" s="17"/>
-      <c r="Z22" s="17"/>
-      <c r="AA22" s="17"/>
-    </row>
-    <row r="23" spans="1:50" ht="11.25" customHeight="1">
-      <c r="A23" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J23" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="N23" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="O23" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q23" s="16" t="s">
+      <c r="T23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="U23" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="R23" s="16" t="s">
+      <c r="V23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="S23" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="T23" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="U23" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="V23" s="16" t="s">
+      <c r="W23" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="W23" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="X23" s="16" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y23" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="Z23" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="AA23" s="18" t="s">
-        <v>217</v>
+      <c r="X23" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="Y23" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="Z23" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA23" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="AL23" s="1"/>
       <c r="AM23" s="4"/>
@@ -3155,33 +3160,33 @@
       <c r="AR23" s="1"/>
     </row>
     <row r="24" spans="1:50">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
-      <c r="R24" s="16"/>
-      <c r="S24" s="16"/>
-      <c r="T24" s="16"/>
-      <c r="U24" s="16"/>
-      <c r="V24" s="16"/>
-      <c r="W24" s="16"/>
-      <c r="X24" s="16"/>
-      <c r="Y24" s="16"/>
-      <c r="Z24" s="16"/>
-      <c r="AA24" s="18"/>
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="18"/>
+      <c r="X24" s="18"/>
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="18"/>
+      <c r="AA24" s="20"/>
       <c r="AL24" s="1"/>
       <c r="AM24" s="4"/>
       <c r="AO24" s="1"/>
@@ -3190,33 +3195,33 @@
       <c r="AR24" s="1"/>
     </row>
     <row r="25" spans="1:50">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
-      <c r="R25" s="16"/>
-      <c r="S25" s="16"/>
-      <c r="T25" s="16"/>
-      <c r="U25" s="16"/>
-      <c r="V25" s="16"/>
-      <c r="W25" s="16"/>
-      <c r="X25" s="16"/>
-      <c r="Y25" s="16"/>
-      <c r="Z25" s="16"/>
-      <c r="AA25" s="18"/>
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="18"/>
+      <c r="V25" s="18"/>
+      <c r="W25" s="18"/>
+      <c r="X25" s="18"/>
+      <c r="Y25" s="18"/>
+      <c r="Z25" s="18"/>
+      <c r="AA25" s="20"/>
       <c r="AL25" s="1"/>
       <c r="AM25" s="4"/>
       <c r="AO25" s="1"/>
@@ -3225,33 +3230,33 @@
       <c r="AR25" s="1"/>
     </row>
     <row r="26" spans="1:50">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="16"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="18"/>
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="18"/>
+      <c r="X26" s="18"/>
+      <c r="Y26" s="18"/>
+      <c r="Z26" s="18"/>
+      <c r="AA26" s="20"/>
       <c r="AL26" s="1"/>
       <c r="AM26" s="4"/>
       <c r="AO26" s="1"/>
@@ -3260,33 +3265,33 @@
       <c r="AR26" s="1"/>
     </row>
     <row r="27" spans="1:50">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="16"/>
-      <c r="N27" s="16"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="16"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="18"/>
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="18"/>
+      <c r="N27" s="18"/>
+      <c r="O27" s="18"/>
+      <c r="P27" s="18"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="18"/>
+      <c r="U27" s="18"/>
+      <c r="V27" s="18"/>
+      <c r="W27" s="18"/>
+      <c r="X27" s="18"/>
+      <c r="Y27" s="18"/>
+      <c r="Z27" s="18"/>
+      <c r="AA27" s="20"/>
       <c r="AL27" s="1"/>
       <c r="AM27" s="4"/>
       <c r="AO27" s="1"/>
@@ -3295,33 +3300,33 @@
       <c r="AR27" s="1"/>
     </row>
     <row r="28" spans="1:50">
-      <c r="A28" s="16"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-      <c r="L28" s="16"/>
-      <c r="M28" s="16"/>
-      <c r="N28" s="16"/>
-      <c r="O28" s="16"/>
-      <c r="P28" s="16"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="18"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="20"/>
       <c r="AL28" s="1"/>
       <c r="AM28" s="4"/>
       <c r="AO28" s="1"/>
@@ -3330,33 +3335,33 @@
       <c r="AR28" s="1"/>
     </row>
     <row r="29" spans="1:50">
-      <c r="A29" s="16"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="16"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="18"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="20"/>
       <c r="AL29" s="1"/>
       <c r="AM29" s="4"/>
       <c r="AO29" s="1"/>
@@ -3371,11 +3376,11 @@
     </row>
     <row r="31" spans="1:50">
       <c r="H31" s="2"/>
-      <c r="L31" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="M31" s="16" t="s">
-        <v>82</v>
+      <c r="L31" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M31" s="18" t="s">
+        <v>79</v>
       </c>
       <c r="S31" s="1"/>
       <c r="V31" s="4"/>
@@ -3383,45 +3388,45 @@
     </row>
     <row r="32" spans="1:50" ht="11.25" customHeight="1">
       <c r="H32" s="2"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="18"/>
       <c r="S32" s="1"/>
       <c r="V32" s="4"/>
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="12:13">
-      <c r="L33" s="14"/>
-      <c r="M33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="18"/>
     </row>
     <row r="34" spans="12:13">
-      <c r="L34" s="14"/>
-      <c r="M34" s="16"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="18"/>
     </row>
     <row r="35" spans="12:13">
-      <c r="L35" s="14"/>
-      <c r="M35" s="16"/>
+      <c r="L35" s="16"/>
+      <c r="M35" s="18"/>
     </row>
     <row r="36" spans="12:13">
-      <c r="L36" s="14"/>
-      <c r="M36" s="16"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="18"/>
     </row>
     <row r="37" spans="12:13">
-      <c r="L37" s="15"/>
-      <c r="M37" s="16"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="18"/>
     </row>
     <row r="39" spans="12:13">
       <c r="L39" s="10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="12:13">
       <c r="L40" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="12:13">
       <c r="L41" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3540,12 +3545,12 @@
       <c r="AR1" s="1"/>
     </row>
     <row r="2" spans="1:44" ht="21">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S2" s="1"/>
       <c r="V2" s="4"/>
@@ -3559,12 +3564,12 @@
       <c r="AR2" s="1"/>
     </row>
     <row r="3" spans="1:44" ht="21">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="20"/>
+      <c r="B3" s="22"/>
       <c r="C3" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D3" s="5"/>
       <c r="G3" s="5"/>
@@ -3593,7 +3598,7 @@
     </row>
     <row r="5" spans="1:44">
       <c r="G5" s="1" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="L5" s="2"/>
       <c r="O5" s="4"/>
@@ -3610,7 +3615,7 @@
         <v>13</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
@@ -3640,10 +3645,10 @@
     </row>
     <row r="7" spans="1:44">
       <c r="A7" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>39</v>
@@ -3658,7 +3663,7 @@
         <v>41</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="4"/>
@@ -3673,7 +3678,7 @@
     </row>
     <row r="8" spans="1:44">
       <c r="A8" s="4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="4" t="s">
@@ -3689,7 +3694,7 @@
         <v>36</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="4"/>
@@ -3704,7 +3709,7 @@
     </row>
     <row r="9" spans="1:44">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
@@ -3720,7 +3725,7 @@
         <v>36</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="S9" s="1"/>
       <c r="T9" s="4"/>
@@ -3735,7 +3740,7 @@
     </row>
     <row r="10" spans="1:44">
       <c r="A10" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="4" t="s">
@@ -3751,7 +3756,7 @@
         <v>41</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="S10" s="1"/>
       <c r="T10" s="4"/>
@@ -3766,7 +3771,7 @@
     </row>
     <row r="11" spans="1:44">
       <c r="A11" s="4" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="4" t="s">
@@ -3782,7 +3787,7 @@
         <v>36</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="S11" s="1"/>
       <c r="T11" s="4"/>
@@ -3797,7 +3802,7 @@
     </row>
     <row r="12" spans="1:44">
       <c r="A12" s="4" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="4" t="s">
@@ -3807,13 +3812,13 @@
         <v>5</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="S12" s="1"/>
       <c r="T12" s="4"/>
@@ -3828,7 +3833,7 @@
     </row>
     <row r="13" spans="1:44">
       <c r="A13" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="4" t="s">
@@ -3859,7 +3864,7 @@
     </row>
     <row r="14" spans="1:44">
       <c r="A14" s="4" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="4" t="s">
@@ -3875,7 +3880,7 @@
         <v>36</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="S14" s="1"/>
       <c r="T14" s="4"/>
@@ -3890,7 +3895,7 @@
     </row>
     <row r="15" spans="1:44">
       <c r="A15" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="4" t="s">
@@ -3906,7 +3911,7 @@
         <v>36</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="S15" s="1"/>
       <c r="T15" s="4"/>
@@ -3921,7 +3926,7 @@
     </row>
     <row r="16" spans="1:44">
       <c r="A16" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="4" t="s">
@@ -3937,7 +3942,7 @@
         <v>36</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="S16" s="1"/>
       <c r="T16" s="4"/>
@@ -3963,116 +3968,116 @@
       <c r="AR17" s="1"/>
     </row>
     <row r="18" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A18" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="33" t="s">
+      <c r="A18" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="45"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="37"/>
+    </row>
+    <row r="19" spans="1:44" ht="11.25" customHeight="1">
+      <c r="A19" s="47"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+    </row>
+    <row r="20" spans="1:44" ht="11.25" customHeight="1">
+      <c r="A20" s="50"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+    </row>
+    <row r="21" spans="1:44">
+      <c r="A21" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="34"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A19" s="45"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="38"/>
-    </row>
-    <row r="20" spans="1:44" ht="11.25" customHeight="1">
-      <c r="A20" s="48"/>
-      <c r="B20" s="49"/>
-      <c r="C20" s="50"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-    </row>
-    <row r="21" spans="1:44">
-      <c r="A21" s="16" t="s">
+      <c r="E21" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F21" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="G21" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C21" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21" s="16" t="s">
+    </row>
+    <row r="22" spans="1:44">
+      <c r="A22" s="18"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="1:44">
+      <c r="A23" s="18"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="1:44">
+      <c r="A24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:44">
+      <c r="A25" s="18"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="A26" s="18"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="A27" s="18"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="B29" s="18" t="s">
         <v>93</v>
-      </c>
-      <c r="F21" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="16" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-    </row>
-    <row r="23" spans="1:44">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-    </row>
-    <row r="24" spans="1:44">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-    </row>
-    <row r="25" spans="1:44">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-    </row>
-    <row r="26" spans="1:44">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-    </row>
-    <row r="27" spans="1:44">
-      <c r="A27" s="16"/>
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-    </row>
-    <row r="29" spans="1:44">
-      <c r="B29" s="16" t="s">
-        <v>96</v>
       </c>
       <c r="O29" s="4"/>
       <c r="S29" s="1"/>
@@ -4086,7 +4091,7 @@
       <c r="AQ29" s="3"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="B30" s="16"/>
+      <c r="B30" s="18"/>
       <c r="O30" s="4"/>
       <c r="S30" s="1"/>
       <c r="U30" s="2"/>
@@ -4099,7 +4104,7 @@
       <c r="AQ30" s="3"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="B31" s="16"/>
+      <c r="B31" s="18"/>
       <c r="O31" s="4"/>
       <c r="S31" s="1"/>
       <c r="U31" s="2"/>
@@ -4112,7 +4117,7 @@
       <c r="AQ31" s="3"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="B32" s="16"/>
+      <c r="B32" s="18"/>
       <c r="O32" s="4"/>
       <c r="S32" s="1"/>
       <c r="U32" s="2"/>
@@ -4125,7 +4130,7 @@
       <c r="AQ32" s="3"/>
     </row>
     <row r="33" spans="2:43">
-      <c r="B33" s="16"/>
+      <c r="B33" s="18"/>
       <c r="O33" s="4"/>
       <c r="S33" s="1"/>
       <c r="U33" s="2"/>
@@ -4138,7 +4143,7 @@
       <c r="AQ33" s="3"/>
     </row>
     <row r="34" spans="2:43">
-      <c r="B34" s="16"/>
+      <c r="B34" s="18"/>
       <c r="O34" s="4"/>
       <c r="S34" s="1"/>
       <c r="U34" s="2"/>
@@ -4151,7 +4156,7 @@
       <c r="AQ34" s="3"/>
     </row>
     <row r="35" spans="2:43">
-      <c r="B35" s="16"/>
+      <c r="B35" s="18"/>
       <c r="O35" s="4"/>
       <c r="S35" s="1"/>
       <c r="U35" s="2"/>
@@ -4716,1254 +4721,1102 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AT49"/>
+  <dimension ref="A1:AU51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="24" style="1" customWidth="1"/>
     <col min="2" max="2" width="19.28515625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22" style="1" customWidth="1"/>
-    <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="10" width="23.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.42578125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="24.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="32.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="40.140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="22.5703125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="26" style="1" customWidth="1"/>
-    <col min="18" max="18" width="25.140625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="22.42578125" style="1" customWidth="1"/>
-    <col min="20" max="20" width="39.85546875" style="1" customWidth="1"/>
-    <col min="21" max="21" width="35.42578125" style="1" customWidth="1"/>
-    <col min="22" max="22" width="30" style="1" customWidth="1"/>
-    <col min="23" max="23" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="26.42578125" style="1" customWidth="1"/>
-    <col min="25" max="25" width="21.5703125" style="1" customWidth="1"/>
-    <col min="26" max="26" width="31.5703125" style="2" customWidth="1"/>
-    <col min="27" max="27" width="25.7109375" style="1" customWidth="1"/>
-    <col min="28" max="28" width="30" style="1" customWidth="1"/>
-    <col min="29" max="29" width="21.140625" style="1" customWidth="1"/>
-    <col min="30" max="30" width="23.28515625" style="1" customWidth="1"/>
-    <col min="31" max="31" width="22.42578125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="23.28515625" style="1" customWidth="1"/>
-    <col min="33" max="33" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="23.28515625" style="1" customWidth="1"/>
-    <col min="35" max="36" width="23.5703125" style="1" customWidth="1"/>
-    <col min="37" max="37" width="24.140625" style="1" customWidth="1"/>
-    <col min="38" max="38" width="23" style="1" customWidth="1"/>
-    <col min="39" max="39" width="34.42578125" style="4" customWidth="1"/>
-    <col min="40" max="40" width="34.140625" style="1" customWidth="1"/>
-    <col min="41" max="41" width="38.5703125" style="1" customWidth="1"/>
-    <col min="42" max="42" width="38.42578125" style="4" customWidth="1"/>
-    <col min="43" max="43" width="24.85546875" style="3" customWidth="1"/>
-    <col min="44" max="44" width="32.7109375" style="1" customWidth="1"/>
-    <col min="45" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="23" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.7109375" style="1" customWidth="1"/>
+    <col min="9" max="10" width="19.5703125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="23.5703125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="22" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24" style="1" customWidth="1"/>
+    <col min="15" max="15" width="23.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="20.5703125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="22.42578125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.7109375" style="1" customWidth="1"/>
+    <col min="19" max="20" width="28.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="37.42578125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="23" style="2" customWidth="1"/>
+    <col min="23" max="23" width="22.5703125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="22.42578125" style="1" customWidth="1"/>
+    <col min="25" max="25" width="20.85546875" style="1" customWidth="1"/>
+    <col min="26" max="26" width="19.5703125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="20.140625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="26" style="1" customWidth="1"/>
+    <col min="29" max="29" width="25.140625" style="1" customWidth="1"/>
+    <col min="30" max="30" width="22.42578125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="39.85546875" style="1" customWidth="1"/>
+    <col min="32" max="32" width="35.42578125" style="1" customWidth="1"/>
+    <col min="33" max="33" width="30" style="1" customWidth="1"/>
+    <col min="34" max="34" width="21.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="26.42578125" style="1" customWidth="1"/>
+    <col min="36" max="37" width="23.5703125" style="1" customWidth="1"/>
+    <col min="38" max="38" width="24.140625" style="1" customWidth="1"/>
+    <col min="39" max="39" width="23" style="1" customWidth="1"/>
+    <col min="40" max="40" width="34.42578125" style="4" customWidth="1"/>
+    <col min="41" max="41" width="34.140625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="38.5703125" style="1" customWidth="1"/>
+    <col min="43" max="43" width="38.42578125" style="4" customWidth="1"/>
+    <col min="44" max="44" width="24.85546875" style="3" customWidth="1"/>
+    <col min="45" max="45" width="32.7109375" style="1" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
-      <c r="W1" s="1"/>
-      <c r="X1" s="4"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="2"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="4"/>
-      <c r="AP1" s="1"/>
+    <row r="1" spans="1:47">
+      <c r="H1" s="2"/>
+      <c r="V1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="4"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="4"/>
       <c r="AQ1" s="1"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="1"/>
-    </row>
-    <row r="2" spans="1:46" ht="21">
-      <c r="A2" s="19" t="s">
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="1"/>
+    </row>
+    <row r="2" spans="1:47" ht="21">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="H2" s="2"/>
+      <c r="V2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="4"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="4"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="1"/>
+    </row>
+    <row r="3" spans="1:47" ht="21">
+      <c r="A3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="V3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="4"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="4"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="1"/>
+    </row>
+    <row r="4" spans="1:47">
+      <c r="H4" s="2"/>
+      <c r="V4" s="1"/>
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="4"/>
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="4"/>
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="1"/>
+    </row>
+    <row r="5" spans="1:47">
+      <c r="H5" s="2"/>
+      <c r="V5" s="1"/>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="4"/>
+      <c r="AN5" s="1"/>
+      <c r="AO5" s="4"/>
+      <c r="AQ5" s="1"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="1"/>
+    </row>
+    <row r="6" spans="1:47">
+      <c r="A6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC6" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="D2" s="5"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="4"/>
-      <c r="Z2" s="1"/>
-      <c r="AA2" s="2"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="4"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="1"/>
-    </row>
-    <row r="3" spans="1:46" ht="21">
-      <c r="A3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="4"/>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="2"/>
-      <c r="AM3" s="1"/>
-      <c r="AN3" s="4"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="1"/>
-    </row>
-    <row r="4" spans="1:46">
-      <c r="W4" s="1"/>
-      <c r="X4" s="4"/>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="2"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="4"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="1"/>
-    </row>
-    <row r="5" spans="1:46">
-      <c r="W5" s="1"/>
-      <c r="X5" s="4"/>
-      <c r="Z5" s="1"/>
-      <c r="AA5" s="2"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="4"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="1"/>
-    </row>
-    <row r="6" spans="1:46">
-      <c r="A6" s="1" t="s">
+      <c r="AD6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH6" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="AI6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AN6" s="1"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="1"/>
+      <c r="AR6" s="1"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="1"/>
+    </row>
+    <row r="7" spans="1:47">
+      <c r="A7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="P7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="V7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="W7" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="X7" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y7" s="12">
+        <v>1127038179</v>
+      </c>
+      <c r="Z7" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="AA7" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AB7" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="AC7" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="R6" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="S6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="T6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="V6" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="W6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="X6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z6" s="1"/>
-      <c r="AB6" s="2"/>
-      <c r="AM6" s="1"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="1"/>
-    </row>
-    <row r="7" spans="1:46">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="N7" s="4" t="s">
+      <c r="AD7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="AF7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="U7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V7" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="W7" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z7" s="1"/>
-      <c r="AB7" s="2"/>
-      <c r="AM7" s="1"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="1"/>
+      <c r="AG7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH7" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="AI7" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AN7" s="1"/>
+      <c r="AP7" s="4"/>
       <c r="AQ7" s="1"/>
-      <c r="AR7" s="4"/>
+      <c r="AR7" s="1"/>
       <c r="AS7" s="4"/>
-      <c r="AT7" s="1"/>
-    </row>
-    <row r="8" spans="1:46">
-      <c r="A8" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H8" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="O8" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="P8" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q8" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AB8" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="AC8" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="AF8" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="AM8" s="1"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="1"/>
+    </row>
+    <row r="8" spans="1:47">
+      <c r="H8" s="2"/>
+      <c r="V8" s="1"/>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="4"/>
+      <c r="AN8" s="1"/>
       <c r="AO8" s="4"/>
-      <c r="AP8" s="1"/>
       <c r="AQ8" s="1"/>
       <c r="AR8" s="4"/>
       <c r="AS8" s="4"/>
       <c r="AT8" s="1"/>
     </row>
-    <row r="9" spans="1:46">
-      <c r="W9" s="1"/>
-      <c r="X9" s="4"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="2"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="4"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="4"/>
+    <row r="9" spans="1:47">
+      <c r="H9" s="2"/>
+      <c r="V9" s="1"/>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="4"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="4"/>
+      <c r="AQ9" s="1"/>
       <c r="AR9" s="4"/>
-      <c r="AS9" s="1"/>
-    </row>
-    <row r="10" spans="1:46">
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="1"/>
+    </row>
+    <row r="10" spans="1:47">
       <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="T10" s="4"/>
-      <c r="Z10" s="1"/>
-      <c r="AL10" s="4"/>
-      <c r="AM10" s="1"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="3"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="3"/>
-    </row>
-    <row r="11" spans="1:46" ht="20.25" customHeight="1">
-      <c r="A11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E10" s="2"/>
+      <c r="V10" s="1"/>
+      <c r="AE10" s="4"/>
+      <c r="AM10" s="4"/>
+      <c r="AN10" s="1"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="3"/>
+      <c r="AR10" s="1"/>
+      <c r="AS10" s="3"/>
+    </row>
+    <row r="11" spans="1:47">
+      <c r="K11" s="4"/>
+      <c r="AH11" s="1"/>
+    </row>
+    <row r="12" spans="1:47" ht="11.25" customHeight="1">
+      <c r="B12" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
+      <c r="K12" s="65"/>
+      <c r="L12" s="65"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="65"/>
+      <c r="O12" s="65"/>
+      <c r="P12" s="65"/>
+      <c r="Q12" s="65"/>
+      <c r="R12" s="65"/>
+      <c r="S12" s="65"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="W12" s="24"/>
+      <c r="X12" s="24"/>
+      <c r="Y12" s="24"/>
+      <c r="Z12" s="24"/>
+      <c r="AA12" s="24"/>
+      <c r="AB12" s="24"/>
+      <c r="AC12" s="24"/>
+      <c r="AD12" s="25"/>
+      <c r="AE12" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF12" s="25"/>
+      <c r="AG12" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="AH12" s="54"/>
+    </row>
+    <row r="13" spans="1:47" ht="11.25" customHeight="1">
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="68"/>
+      <c r="P13" s="68"/>
+      <c r="Q13" s="68"/>
+      <c r="R13" s="68"/>
+      <c r="S13" s="68"/>
+      <c r="T13" s="69"/>
+      <c r="U13" s="60"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="27"/>
+      <c r="X13" s="27"/>
+      <c r="Y13" s="27"/>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="27"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="26"/>
+      <c r="AF13" s="28"/>
+      <c r="AG13" s="55"/>
+      <c r="AH13" s="56"/>
+    </row>
+    <row r="14" spans="1:47" ht="11.25" customHeight="1">
+      <c r="B14" s="70"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="71"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="30"/>
+      <c r="X14" s="30"/>
+      <c r="Y14" s="30"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="31"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="31"/>
+      <c r="AG14" s="57"/>
+      <c r="AH14" s="58"/>
+    </row>
+    <row r="15" spans="1:47" ht="11.25" customHeight="1">
+      <c r="A15" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="F15" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="H15" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="I15" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="K15" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="M15" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="P15" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q15" s="18" t="s">
         <v>130</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M11" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="S11" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="T11" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="U11" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="V11" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="W11" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="Z11" s="1"/>
-      <c r="AJ11" s="4"/>
-      <c r="AN11" s="3"/>
-      <c r="AP11" s="3"/>
-      <c r="AR11" s="3"/>
-    </row>
-    <row r="12" spans="1:46">
-      <c r="A12" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="N12" s="4"/>
-      <c r="O12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V12" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="W12" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="X12" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="Y12" s="4"/>
-      <c r="Z12" s="4"/>
-      <c r="AA12" s="4"/>
-      <c r="AB12" s="4"/>
-      <c r="AC12" s="4"/>
-      <c r="AD12" s="4"/>
-      <c r="AE12" s="4"/>
-      <c r="AF12" s="4"/>
-      <c r="AG12" s="4"/>
-      <c r="AH12" s="4"/>
-      <c r="AI12" s="4"/>
-      <c r="AJ12" s="4"/>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
-      <c r="AN12" s="3"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="3"/>
-      <c r="AR12" s="3"/>
-    </row>
-    <row r="13" spans="1:46">
-      <c r="A13" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="6" t="s">
+      <c r="R15" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="S15" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="T15" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="U15" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="C13" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="M13" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="N13" s="6"/>
-      <c r="O13" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="R13" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="S13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="T13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="U13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="V13" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="W13" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="X13" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Y13" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="Z13" s="1"/>
-      <c r="AK13" s="4"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="4"/>
-      <c r="AO13" s="3"/>
-      <c r="AP13" s="1"/>
-      <c r="AR13" s="3"/>
-    </row>
-    <row r="14" spans="1:46">
-      <c r="A14" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="V14" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="W14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="X14" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="Z14" s="1"/>
-      <c r="AJ14" s="4"/>
-      <c r="AN14" s="3"/>
-      <c r="AP14" s="3"/>
-      <c r="AR14" s="3"/>
-    </row>
-    <row r="15" spans="1:46">
-      <c r="F15" s="4"/>
-      <c r="W15" s="1"/>
-    </row>
-    <row r="16" spans="1:46" ht="11.25" customHeight="1">
-      <c r="B16" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
-      <c r="K16" s="55"/>
-      <c r="L16" s="55"/>
-      <c r="M16" s="56"/>
-      <c r="O16" s="53" t="s">
-        <v>63</v>
-      </c>
-      <c r="P16" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q16" s="51"/>
-      <c r="R16" s="51"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="U16" s="23"/>
-      <c r="V16" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="W16" s="51"/>
-    </row>
-    <row r="17" spans="1:45" ht="11.25" customHeight="1">
-      <c r="B17" s="57"/>
-      <c r="C17" s="58"/>
-      <c r="D17" s="58"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="59"/>
-      <c r="O17" s="53"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
-      <c r="R17" s="51"/>
-      <c r="S17" s="51"/>
-      <c r="T17" s="24"/>
-      <c r="U17" s="26"/>
-      <c r="V17" s="51"/>
-      <c r="W17" s="51"/>
-    </row>
-    <row r="18" spans="1:45" ht="11.25" customHeight="1">
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="61"/>
-      <c r="G18" s="61"/>
-      <c r="H18" s="61"/>
-      <c r="I18" s="61"/>
-      <c r="J18" s="61"/>
-      <c r="K18" s="61"/>
-      <c r="L18" s="61"/>
-      <c r="M18" s="62"/>
-      <c r="O18" s="53"/>
-      <c r="P18" s="51"/>
-      <c r="Q18" s="51"/>
-      <c r="R18" s="51"/>
-      <c r="S18" s="51"/>
-      <c r="T18" s="27"/>
-      <c r="U18" s="29"/>
-      <c r="V18" s="51"/>
-      <c r="W18" s="51"/>
-    </row>
-    <row r="19" spans="1:45" ht="11.25" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="16" t="s">
+      <c r="V15" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="W15" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="X15" s="18" t="s">
+        <v>264</v>
+      </c>
+      <c r="Y15" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z15" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="AB15" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="AC15" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AD15" s="59" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE15" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF15" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AG15" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="AH15" s="20" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="16" t="s">
-        <v>121</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>123</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="I19" s="16" t="s">
-        <v>124</v>
-      </c>
-      <c r="J19" s="16" t="s">
-        <v>125</v>
-      </c>
-      <c r="K19" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="L19" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>280</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>273</v>
-      </c>
-      <c r="P19" s="16" t="s">
-        <v>74</v>
-      </c>
-      <c r="Q19" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="R19" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="S19" s="52" t="s">
-        <v>71</v>
-      </c>
-      <c r="T19" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="U19" s="18" t="s">
+      <c r="AI15" s="20" t="s">
         <v>133</v>
       </c>
-      <c r="V19" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="W19" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="X19" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="2"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="4"/>
-      <c r="AP19" s="1"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="3"/>
-      <c r="AS19" s="1"/>
-    </row>
-    <row r="20" spans="1:45">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="16"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="16"/>
-      <c r="M20" s="16"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="16"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="52"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="4"/>
+      <c r="AQ15" s="1"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="3"/>
+      <c r="AT15" s="1"/>
+    </row>
+    <row r="16" spans="1:47">
+      <c r="A16" s="18"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="18"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
+      <c r="O16" s="18"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="18"/>
+      <c r="Y16" s="18"/>
+      <c r="Z16" s="18"/>
+      <c r="AA16" s="18"/>
+      <c r="AB16" s="18"/>
+      <c r="AC16" s="18"/>
+      <c r="AD16" s="59"/>
+      <c r="AE16" s="20"/>
+      <c r="AF16" s="20"/>
+      <c r="AG16" s="20"/>
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="4"/>
+      <c r="AQ16" s="1"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="3"/>
+      <c r="AT16" s="1"/>
+    </row>
+    <row r="17" spans="1:46">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="18"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+      <c r="N17" s="18"/>
+      <c r="O17" s="18"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+      <c r="U17" s="18"/>
+      <c r="V17" s="18"/>
+      <c r="W17" s="18"/>
+      <c r="X17" s="18"/>
+      <c r="Y17" s="18"/>
+      <c r="Z17" s="18"/>
+      <c r="AA17" s="18"/>
+      <c r="AB17" s="18"/>
+      <c r="AC17" s="18"/>
+      <c r="AD17" s="59"/>
+      <c r="AE17" s="20"/>
+      <c r="AF17" s="20"/>
+      <c r="AG17" s="20"/>
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="4"/>
+      <c r="AQ17" s="1"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="3"/>
+      <c r="AT17" s="1"/>
+    </row>
+    <row r="18" spans="1:46">
+      <c r="A18" s="18"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="18"/>
+      <c r="X18" s="18"/>
+      <c r="Y18" s="18"/>
+      <c r="Z18" s="18"/>
+      <c r="AA18" s="18"/>
+      <c r="AB18" s="18"/>
+      <c r="AC18" s="18"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="20"/>
+      <c r="AF18" s="20"/>
+      <c r="AG18" s="20"/>
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="4"/>
+      <c r="AQ18" s="1"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="3"/>
+      <c r="AT18" s="1"/>
+    </row>
+    <row r="19" spans="1:46">
+      <c r="A19" s="18"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="18"/>
+      <c r="AA19" s="18"/>
+      <c r="AB19" s="18"/>
+      <c r="AC19" s="18"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="20"/>
+      <c r="AF19" s="20"/>
+      <c r="AG19" s="20"/>
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="4"/>
+      <c r="AQ19" s="1"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="3"/>
+      <c r="AT19" s="1"/>
+    </row>
+    <row r="20" spans="1:46">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
       <c r="X20" s="18"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="2"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="4"/>
-      <c r="AP20" s="1"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="3"/>
-      <c r="AS20" s="1"/>
-    </row>
-    <row r="21" spans="1:45">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="16"/>
-      <c r="K21" s="16"/>
-      <c r="L21" s="16"/>
-      <c r="M21" s="16"/>
-      <c r="N21" s="16"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="52"/>
+      <c r="Y20" s="18"/>
+      <c r="Z20" s="18"/>
+      <c r="AA20" s="18"/>
+      <c r="AB20" s="18"/>
+      <c r="AC20" s="18"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="20"/>
+      <c r="AF20" s="20"/>
+      <c r="AG20" s="20"/>
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="4"/>
+      <c r="AQ20" s="1"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="3"/>
+      <c r="AT20" s="1"/>
+    </row>
+    <row r="21" spans="1:46">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
       <c r="X21" s="18"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="2"/>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="4"/>
-      <c r="AP21" s="1"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="3"/>
-      <c r="AS21" s="1"/>
-    </row>
-    <row r="22" spans="1:45">
-      <c r="A22" s="16"/>
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-      <c r="L22" s="16"/>
-      <c r="M22" s="16"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="52"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
-      <c r="W22" s="18"/>
-      <c r="X22" s="18"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="2"/>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="4"/>
-      <c r="AP22" s="1"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="3"/>
-      <c r="AS22" s="1"/>
-    </row>
-    <row r="23" spans="1:45">
-      <c r="A23" s="16"/>
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-      <c r="L23" s="16"/>
-      <c r="M23" s="16"/>
-      <c r="N23" s="16"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="16"/>
-      <c r="Q23" s="16"/>
-      <c r="R23" s="16"/>
-      <c r="S23" s="52"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
-      <c r="W23" s="18"/>
-      <c r="X23" s="18"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="2"/>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="4"/>
-      <c r="AP23" s="1"/>
-      <c r="AQ23" s="4"/>
-      <c r="AR23" s="3"/>
-      <c r="AS23" s="1"/>
-    </row>
-    <row r="24" spans="1:45">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16"/>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16"/>
-      <c r="O24" s="16"/>
-      <c r="P24" s="16"/>
-      <c r="Q24" s="16"/>
+      <c r="Y21" s="18"/>
+      <c r="Z21" s="18"/>
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="18"/>
+      <c r="AC21" s="18"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="20"/>
+      <c r="AF21" s="20"/>
+      <c r="AG21" s="20"/>
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+      <c r="AN21" s="1"/>
+      <c r="AO21" s="4"/>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="3"/>
+      <c r="AT21" s="1"/>
+    </row>
+    <row r="22" spans="1:46">
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="20"/>
+      <c r="AG22" s="20"/>
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+    </row>
+    <row r="23" spans="1:46">
+      <c r="H23" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="K23" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="R23" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="S23" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="T23" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="20"/>
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+    </row>
+    <row r="24" spans="1:46">
+      <c r="H24" s="18"/>
+      <c r="K24" s="18"/>
       <c r="R24" s="16"/>
-      <c r="S24" s="52"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="18"/>
-      <c r="X24" s="18"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="2"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="4"/>
-      <c r="AP24" s="1"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="3"/>
-      <c r="AS24" s="1"/>
-    </row>
-    <row r="25" spans="1:45">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-      <c r="L25" s="16"/>
-      <c r="M25" s="16"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="16"/>
-      <c r="Q25" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+    </row>
+    <row r="25" spans="1:46">
+      <c r="H25" s="18"/>
+      <c r="K25" s="18"/>
       <c r="R25" s="16"/>
-      <c r="S25" s="52"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
-      <c r="W25" s="18"/>
-      <c r="X25" s="18"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="2"/>
-      <c r="AM25" s="1"/>
-      <c r="AN25" s="4"/>
-      <c r="AP25" s="1"/>
-      <c r="AQ25" s="4"/>
-      <c r="AR25" s="3"/>
-      <c r="AS25" s="1"/>
-    </row>
-    <row r="26" spans="1:45">
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
-      <c r="W26" s="18"/>
-      <c r="X26" s="18"/>
-    </row>
-    <row r="27" spans="1:45">
-      <c r="F27" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
-      <c r="W27" s="18"/>
-      <c r="X27" s="18"/>
-    </row>
-    <row r="28" spans="1:45">
-      <c r="F28" s="16"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="1:45">
-      <c r="F29" s="16"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="1:45">
-      <c r="F30" s="16"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-    </row>
-    <row r="31" spans="1:45">
-      <c r="F31" s="16"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-    </row>
-    <row r="32" spans="1:45">
-      <c r="F32" s="16"/>
-      <c r="M32" s="14"/>
-      <c r="N32" s="14"/>
-    </row>
-    <row r="33" spans="6:14">
-      <c r="F33" s="16"/>
-      <c r="M33" s="15"/>
-      <c r="N33" s="15"/>
-    </row>
-    <row r="35" spans="6:14">
-      <c r="N35" s="13" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="36" spans="6:14">
-      <c r="N36" s="14"/>
-    </row>
-    <row r="37" spans="6:14">
-      <c r="N37" s="14"/>
-    </row>
-    <row r="38" spans="6:14">
-      <c r="N38" s="14"/>
-    </row>
-    <row r="39" spans="6:14">
-      <c r="N39" s="14"/>
-    </row>
-    <row r="40" spans="6:14">
-      <c r="N40" s="14"/>
-    </row>
-    <row r="41" spans="6:14">
-      <c r="N41" s="15"/>
-    </row>
-    <row r="43" spans="6:14">
-      <c r="N43" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="6:14">
-      <c r="N44" s="18"/>
-    </row>
-    <row r="45" spans="6:14">
-      <c r="N45" s="18"/>
-    </row>
-    <row r="46" spans="6:14">
-      <c r="N46" s="18"/>
-    </row>
-    <row r="47" spans="6:14">
-      <c r="N47" s="18"/>
-    </row>
-    <row r="48" spans="6:14">
-      <c r="N48" s="18"/>
-    </row>
-    <row r="49" spans="14:14">
-      <c r="N49" s="18"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+    </row>
+    <row r="26" spans="1:46">
+      <c r="H26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+    </row>
+    <row r="27" spans="1:46">
+      <c r="H27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+    </row>
+    <row r="28" spans="1:46">
+      <c r="H28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+    </row>
+    <row r="29" spans="1:46">
+      <c r="H29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+    </row>
+    <row r="31" spans="1:46">
+      <c r="S31" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="T31" s="15" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="32" spans="1:46">
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+    </row>
+    <row r="33" spans="19:20">
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+    </row>
+    <row r="34" spans="19:20">
+      <c r="S34" s="16"/>
+      <c r="T34" s="16"/>
+    </row>
+    <row r="35" spans="19:20">
+      <c r="S35" s="16"/>
+      <c r="T35" s="16"/>
+    </row>
+    <row r="36" spans="19:20">
+      <c r="S36" s="16"/>
+      <c r="T36" s="16"/>
+    </row>
+    <row r="37" spans="19:20">
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+    </row>
+    <row r="39" spans="19:20" ht="11.25" customHeight="1">
+      <c r="S39" s="61" t="s">
+        <v>253</v>
+      </c>
+      <c r="T39" s="61" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="19:20">
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+    </row>
+    <row r="41" spans="19:20">
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+    </row>
+    <row r="42" spans="19:20">
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+    </row>
+    <row r="43" spans="19:20">
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+    </row>
+    <row r="44" spans="19:20">
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+    </row>
+    <row r="45" spans="19:20">
+      <c r="S45" s="62"/>
+      <c r="T45" s="62"/>
+    </row>
+    <row r="46" spans="19:20">
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+    </row>
+    <row r="47" spans="19:20">
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+    </row>
+    <row r="48" spans="19:20">
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+    </row>
+    <row r="49" spans="19:20">
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+    </row>
+    <row r="50" spans="19:20">
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+    </row>
+    <row r="51" spans="19:20">
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="N19:N25"/>
-    <mergeCell ref="N43:N49"/>
-    <mergeCell ref="N27:N33"/>
-    <mergeCell ref="N35:N41"/>
+  <mergeCells count="50">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="T19:T27"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="C19:C25"/>
-    <mergeCell ref="O19:O25"/>
-    <mergeCell ref="O16:O18"/>
-    <mergeCell ref="F19:F25"/>
-    <mergeCell ref="F27:F33"/>
-    <mergeCell ref="K19:K25"/>
-    <mergeCell ref="B19:B25"/>
-    <mergeCell ref="E19:E25"/>
-    <mergeCell ref="G19:G25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="J19:J25"/>
-    <mergeCell ref="V16:W18"/>
-    <mergeCell ref="X19:X27"/>
-    <mergeCell ref="V19:V27"/>
-    <mergeCell ref="L19:L25"/>
-    <mergeCell ref="W19:W27"/>
-    <mergeCell ref="M19:M25"/>
-    <mergeCell ref="M27:M33"/>
-    <mergeCell ref="U19:U27"/>
-    <mergeCell ref="P16:S18"/>
-    <mergeCell ref="T16:U18"/>
-    <mergeCell ref="P19:P25"/>
-    <mergeCell ref="Q19:Q25"/>
-    <mergeCell ref="R19:R25"/>
-    <mergeCell ref="S19:S25"/>
-    <mergeCell ref="D19:D25"/>
+    <mergeCell ref="J15:J21"/>
+    <mergeCell ref="S39:S51"/>
+    <mergeCell ref="AE15:AE23"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="C15:C21"/>
+    <mergeCell ref="U15:U21"/>
+    <mergeCell ref="V15:V21"/>
+    <mergeCell ref="T31:T37"/>
+    <mergeCell ref="T39:T51"/>
+    <mergeCell ref="H23:H29"/>
+    <mergeCell ref="S15:S21"/>
+    <mergeCell ref="S23:S29"/>
+    <mergeCell ref="S31:S37"/>
+    <mergeCell ref="O15:O21"/>
+    <mergeCell ref="E15:E21"/>
+    <mergeCell ref="D15:D21"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="K15:K21"/>
+    <mergeCell ref="K23:K29"/>
+    <mergeCell ref="P15:P21"/>
+    <mergeCell ref="B15:B21"/>
+    <mergeCell ref="I15:I21"/>
+    <mergeCell ref="L15:L21"/>
+    <mergeCell ref="M15:M21"/>
+    <mergeCell ref="N15:N21"/>
+    <mergeCell ref="Q15:Q21"/>
+    <mergeCell ref="R15:R21"/>
+    <mergeCell ref="R23:R29"/>
+    <mergeCell ref="T15:T21"/>
+    <mergeCell ref="T23:T29"/>
+    <mergeCell ref="F15:F21"/>
+    <mergeCell ref="H15:H21"/>
+    <mergeCell ref="AG12:AH14"/>
+    <mergeCell ref="AE12:AF14"/>
+    <mergeCell ref="X15:X21"/>
+    <mergeCell ref="V12:AD14"/>
+    <mergeCell ref="AI15:AI23"/>
+    <mergeCell ref="AG15:AG23"/>
+    <mergeCell ref="AH15:AH23"/>
+    <mergeCell ref="AF15:AF23"/>
+    <mergeCell ref="W15:W21"/>
+    <mergeCell ref="AB15:AB21"/>
+    <mergeCell ref="AC15:AC21"/>
+    <mergeCell ref="AD15:AD21"/>
+    <mergeCell ref="Y15:Y21"/>
+    <mergeCell ref="Z15:Z21"/>
+    <mergeCell ref="AA15:AA21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5972,17 +5825,20 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C2:F28"/>
+  <dimension ref="C2:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F2:F25"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="20.5703125" style="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:6">
-      <c r="C2" s="7" t="s">
-        <v>106</v>
+      <c r="C2" s="13" t="s">
+        <v>103</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(C2,",")</f>
@@ -5990,17 +5846,17 @@
       </c>
     </row>
     <row r="3" spans="3:6">
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="F3" t="str">
-        <f t="shared" ref="F3:F28" si="0">CONCATENATE(C3,",")</f>
+        <f t="shared" ref="F3:F35" si="0">CONCATENATE(C3,",")</f>
         <v>NR_ENTREGA,</v>
       </c>
     </row>
     <row r="4" spans="3:6">
-      <c r="C4" s="7" t="s">
-        <v>62</v>
+      <c r="C4" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -6008,219 +5864,282 @@
       </c>
     </row>
     <row r="5" spans="3:6">
-      <c r="C5" s="7" t="s">
-        <v>130</v>
+      <c r="C5" s="13" t="s">
+        <v>266</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
-        <v>NR_REF_FISCAL,</v>
+        <v>NR_CONTRATO,</v>
       </c>
     </row>
     <row r="6" spans="3:6">
-      <c r="C6" s="7" t="s">
-        <v>2</v>
+      <c r="C6" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
-        <v>CD_FILIAL,</v>
+        <v>NR_REF_FISCAL,</v>
       </c>
     </row>
     <row r="7" spans="3:6">
-      <c r="C7" s="7" t="s">
-        <v>110</v>
+      <c r="C7" s="13" t="s">
+        <v>246</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
-        <v>NR_CNPJ_TRANSPORTADORA,</v>
+        <v>NR_CARGA,</v>
       </c>
     </row>
     <row r="8" spans="3:6">
-      <c r="C8" s="7" t="s">
-        <v>103</v>
+      <c r="C8" s="13" t="s">
+        <v>265</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NOTA_FISCAL,</v>
+        <v>QT_VOLUME,</v>
       </c>
     </row>
     <row r="9" spans="3:6">
-      <c r="C9" s="7" t="s">
-        <v>102</v>
+      <c r="C9" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NOTA_FISCAL,</v>
+        <v>DT_PREVISTA,</v>
       </c>
     </row>
     <row r="10" spans="3:6">
-      <c r="C10" s="7" t="s">
-        <v>14</v>
+      <c r="C10" s="13" t="s">
+        <v>2</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
-        <v>VL_FRETE_PAGAR_GARANTIA,</v>
+        <v>CD_FILIAL,</v>
       </c>
     </row>
     <row r="11" spans="3:6">
-      <c r="C11" s="7" t="s">
-        <v>99</v>
+      <c r="C11" s="13" t="s">
+        <v>107</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="0"/>
-        <v>VL_FRETE_CLIENTE,</v>
+        <v>NR_CNPJ_TRANSPORTADORA,</v>
       </c>
     </row>
     <row r="12" spans="3:6">
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
-        <v>VL_FRETE_CLIENTE_ORIGINAL,</v>
+        <v>NR_SERIE_NOTA_FISCAL,</v>
       </c>
     </row>
     <row r="13" spans="3:6">
-      <c r="C13" s="7" t="s">
-        <v>108</v>
+      <c r="C13" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="F13" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PESO,</v>
+        <v>NR_NOTA_FISCAL,</v>
       </c>
     </row>
     <row r="14" spans="3:6">
-      <c r="C14" s="7" t="s">
-        <v>111</v>
+      <c r="C14" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="0"/>
-        <v>DS_OBS_ROMANEIO,</v>
+        <v>VL_FRETE_PAGAR_GARANTIA,</v>
       </c>
     </row>
     <row r="15" spans="3:6">
-      <c r="C15" s="7" t="s">
-        <v>256</v>
+      <c r="C15" s="13" t="s">
+        <v>96</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
-        <v>DS_REGIAO,</v>
+        <v>VL_FRETE_CLIENTE,</v>
       </c>
     </row>
     <row r="16" spans="3:6">
-      <c r="C16" s="7" t="s">
-        <v>12</v>
+      <c r="C16" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
-        <v>DT_SAIDA_ENTREGA,</v>
+        <v>VL_FRETE_CLIENTE_ORIGINAL,</v>
       </c>
     </row>
     <row r="17" spans="3:6">
-      <c r="C17" s="7" t="s">
-        <v>19</v>
+      <c r="C17" s="13" t="s">
+        <v>105</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
-        <v>DT_PROMETIDA,</v>
+        <v>VL_PESO,</v>
       </c>
     </row>
     <row r="18" spans="3:6">
-      <c r="C18" s="7" t="s">
-        <v>28</v>
+      <c r="C18" s="13" t="s">
+        <v>108</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
-        <v>CD_CEP_DESTINATARIO,</v>
+        <v>DS_OBS_ROMANEIO,</v>
       </c>
     </row>
     <row r="19" spans="3:6">
-      <c r="C19" s="7" t="s">
-        <v>101</v>
+      <c r="C19" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
-        <v>NM_CIDADE_DESTINATARIO,</v>
+        <v>DS_REGIAO,</v>
       </c>
     </row>
     <row r="20" spans="3:6">
-      <c r="C20" s="7" t="s">
-        <v>27</v>
+      <c r="C20" s="13" t="s">
+        <v>254</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
-        <v>NM_UF_DESTINATARIO,</v>
+        <v>DS_CAPITAL_INTERIOR,</v>
       </c>
     </row>
     <row r="21" spans="3:6">
-      <c r="C21" s="7" t="s">
-        <v>104</v>
+      <c r="C21" s="13" t="s">
+        <v>12</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
-        <v>NR_NOTA_FATURA,</v>
+        <v>DT_SAIDA_ENTREGA,</v>
       </c>
     </row>
     <row r="22" spans="3:6">
-      <c r="C22" s="7" t="s">
-        <v>105</v>
+      <c r="C22" s="13" t="s">
+        <v>247</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
-        <v>NR_SERIE_NOTA_FATURA,</v>
+        <v>DT_AJUSTADA,</v>
       </c>
     </row>
     <row r="23" spans="3:6">
-      <c r="C23" s="7" t="s">
-        <v>107</v>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
-        <v>VL_VOLUME_M3,</v>
+        <v>DT_PROMETIDA,</v>
       </c>
     </row>
     <row r="24" spans="3:6">
-      <c r="C24" s="11" t="s">
-        <v>109</v>
+      <c r="C24" s="13" t="s">
+        <v>252</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
-        <v>VL_PESO_CUBADO,</v>
+        <v>NR_PERIODO,</v>
       </c>
     </row>
     <row r="25" spans="3:6">
-      <c r="C25" s="7" t="s">
-        <v>112</v>
+      <c r="C25" s="13" t="s">
+        <v>249</v>
       </c>
       <c r="F25" t="str">
         <f t="shared" si="0"/>
-        <v>DT_ULT_ATUALIZACAO,</v>
+        <v>NR_TELEFONE,</v>
       </c>
     </row>
     <row r="26" spans="3:6">
-      <c r="C26" s="7" t="s">
-        <v>23</v>
+      <c r="C26" s="13" t="s">
+        <v>250</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
-        <v>DT_LIMITE_EXPEDICAO,</v>
+        <v>NR_TELEFONE1,</v>
       </c>
     </row>
     <row r="27" spans="3:6">
-      <c r="C27" s="7" t="s">
-        <v>30</v>
+      <c r="C27" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
-        <v>VL_TOTAL_NF,</v>
+        <v>NR_TELEFONE2,</v>
       </c>
     </row>
     <row r="28" spans="3:6">
-      <c r="C28" t="s">
-        <v>32</v>
+      <c r="C28" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
-        <v>QT_VOLUMES,</v>
+        <v>CD_CEP_DESTINATARIO,</v>
+      </c>
+    </row>
+    <row r="29" spans="3:6">
+      <c r="C29" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>NM_CIDADE_DESTINATARIO,</v>
+      </c>
+    </row>
+    <row r="30" spans="3:6">
+      <c r="C30" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>NM_UF_DESTINATARIO,</v>
+      </c>
+    </row>
+    <row r="31" spans="3:6">
+      <c r="C31" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>NR_NOTA_FATURA,</v>
+      </c>
+    </row>
+    <row r="32" spans="3:6">
+      <c r="C32" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>NR_SERIE_NOTA_FATURA,</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6">
+      <c r="C33" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>VL_VOLUME_M3,</v>
+      </c>
+    </row>
+    <row r="34" spans="3:6">
+      <c r="C34" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>VL_PESO_CUBADO,</v>
+      </c>
+    </row>
+    <row r="35" spans="3:6">
+      <c r="C35" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>DT_ULT_ATUALIZACAO,</v>
       </c>
     </row>
   </sheetData>
